--- a/data_in/Van Meter et al. GSH Fertilizer Mixed Pesticides All Data.xlsx
+++ b/data_in/Van Meter et al. GSH Fertilizer Mixed Pesticides All Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\VanMeteretal2021_fp_mixtures\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4A465-0219-46A8-9E76-DC212A948878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E78BB7AC-4C83-48F0-A793-27025940DEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="765" windowWidth="27405" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tissue, Soil, BCF" sheetId="1" r:id="rId1"/>
-    <sheet name="GSH" sheetId="2" r:id="rId2"/>
+    <sheet name="atrazine" sheetId="3" r:id="rId2"/>
+    <sheet name="alachlor" sheetId="4" r:id="rId3"/>
+    <sheet name="GSH" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -603,7 +605,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="K2" sqref="K2:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1797,10 +1799,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A87BEA-8190-4C3E-98BD-159FF3011E9F}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.9676175002367255</v>
+      </c>
+      <c r="G2" s="7">
+        <v>7.536388845757326</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H25" si="0">F2/G2</f>
+        <v>0.92452998947356657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.8952464336753463</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11.85351223621276</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15988901820047258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.951272391017719</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9.2967713350501047</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31745132634283657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.125297683883165</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.0917854737969037</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4277501372954158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1480591863954723</v>
+      </c>
+      <c r="G6" s="7">
+        <v>12.858727139275038</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9282490713167018E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.38696993322127726</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11.85351223621276</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2646014574403949E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.3012199692807407</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.0308428609385336</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2157608810716454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.95696675095322</v>
+      </c>
+      <c r="G9" s="7">
+        <v>14.463331096001344</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13530539665888308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.6208751273823516</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5.4635956953712927</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0287867991667656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.8956101064604962</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10.870311341541946</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1743841594689417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.0735526703863456</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6.6253778670965309</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16203644409746149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.155779964224978</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3.7047906992406521</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4713352811271041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.7690873549448531</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7.600116947294171</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23277107013132106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.2660856614276064</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6.8786369735839994</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91094873671793242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.5973408440883947</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5.2512264206976615</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8276379792462505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.4926052543137262</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.415673814507957</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6781530444983509E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.2938746876319742</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.7518925126625966</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39880346904642022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.5200926500654666</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.3795093337492776</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23827736124215348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.69923506433414784</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.100660364340813</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.847465284294879E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.41604715466446984</v>
+      </c>
+      <c r="G21" s="7">
+        <v>12.149032793371788</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4245290282816164E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.2149987608451707</v>
+      </c>
+      <c r="G22" s="7">
+        <v>12.225172820785673</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9384996732265959E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.7039386100175498</v>
+      </c>
+      <c r="G23" s="7">
+        <v>11.925157192843727</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31059872420300499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0837873104681219</v>
+      </c>
+      <c r="G24" s="7">
+        <v>19.266122193993962</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6253526244424153E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.79199490203686296</v>
+      </c>
+      <c r="G25" s="7">
+        <v>20.605411318367327</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.843625782567571E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D271B9ED-3B77-40A7-8A59-F10EE54E18E6}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.21552730978515067</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11.081501039842877</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H25" si="0">F2/G2</f>
+        <v>1.9449288414108798E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.6395802107885387</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13.399034342493167</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12236555029856434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.8407475964914894</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.2563960535651706</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73902926764426036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.7415279940469299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16.201796707374641</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10748980656288763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.1672428333468012</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22.755710346811821</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5239515722278553E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0867450282311693</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16.129355317983475</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7376842211387053E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.91777177414345523</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12.243911368638969</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4957400989866405E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.7158584642741257</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18.01392415399588</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26178962584496313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.86589458691121757</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12.020081782594264</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2037329077500975E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.9249203216675745</v>
+      </c>
+      <c r="G11" s="1">
+        <v>14.63366911245819</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19987607340236227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.3142954490951153</v>
+      </c>
+      <c r="G12" s="1">
+        <v>19.860875266100376</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11652535037291538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1857012618573659</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12.851194693206043</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2263893759558624E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.5761167334756365</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11.148461650527967</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14137526619208446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.3876100699837925</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25.872801489189445</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2282626254502009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.9982782491018032</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9.9999756610652657</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89983001500058102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.5014717654341103</v>
+      </c>
+      <c r="G17" s="1">
+        <v>19.248603830371092</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18190783062974006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3772874197448415</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12.020072371860044</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11458229011741911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.960007493913281</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.6485478473280288</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.498072620161121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.0908965376402118</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11.646794401545748</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17952549564734402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.7892513052449095</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10.662469095442512</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44916906791242117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.937564856654102</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.2789653100749412</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6834911531387899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.0637480294784007</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10.330288738858268</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1029736976738144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.4083608851727294</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9.6032219111953019</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25078675755322244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.3084443993198542</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10.104347891423354</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22846050275835011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
